--- a/G20_Acceptance.Ass1.xlsx
+++ b/G20_Acceptance.Ass1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Alon\Desktop\Alon\GoNature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F9CE68B-6F5C-43A9-9E23-9B743900B943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3BBBA0-15C1-4AF0-8B4B-8E91F2431311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{66F18C86-3E6B-4F2E-A3A6-956843228F2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66F18C86-3E6B-4F2E-A3A6-956843228F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t>Req. number</t>
   </si>
@@ -199,13 +199,6 @@
     <t>CCR-04 Failed Cancelletion report (User Does not have premission(Normal Worker))</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO:
--Add details to description
--Add wrong ID tests
--Add comments
-</t>
-  </si>
-  <si>
     <t>Reemy Halabi</t>
   </si>
   <si>
@@ -239,165 +232,6 @@
     <t>ID is valid
 Timeslot is available
 Email is valid</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User enters his ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"205575878"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User select the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"new booking"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-User Selects a park from the park list </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Hyde Park"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User selects number of attendees of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User selects Date and time </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Monday 12:21"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User enter a Email </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"User1@gmail.com"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User selects the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"confirm Booking"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -448,324 +282,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">User enters his ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"205575878"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User select the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"new booking"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-User Selects a park from the park list </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Hyde Park"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User selects number of attendees of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User selects Date and time </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Monday 12:21"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User enter a Email </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"  "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User selects the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"confirm Booking"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User enters his ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"205575878"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User select the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"new booking"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-User Selects a park from the park list </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Hyde Park"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User selects number of attendees of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User selects Date and time </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Monday 12:21"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User enter a Email </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"wrongk1@gnail.co"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-User selects the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"confirm Booking"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">User enters his Username "Bossman1"
 User enters his Password "Pizza123"
 User selects "create report"
@@ -834,12 +350,42 @@
   <si>
     <t>Group 20 - Date Of Submission : 04/02/24</t>
   </si>
+  <si>
+    <t xml:space="preserve">User enters his ID "205575878"
+User select the "new booking" button
+User Selects a park from the park list "Hyde Park"
+User selects number of attendees of 2
+User selects Date and time "Monday 12:21"
+User enter a Email "User1@gmail.com"
+User selects the "confirm Booking" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his ID "205575878"
+User select the "new booking" button
+User Selects a park from the park list "Hyde Park"
+User selects number of attendees of 2
+User selects Date and time "Monday 12:21"
+User enter a Email "  "
+User selects the "confirm Booking" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters his ID "205575878"
+User select the "new booking" button
+User Selects a park from the park list "Hyde Park"
+User selects number of attendees of 2
+User selects Date and time "Monday 12:21"
+User enter a Email "wrongk1@gnail.co"
+User selects the "confirm Booking" button
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,27 +394,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -891,24 +418,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -929,6 +440,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1043,72 +561,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1116,13 +596,54 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
-    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+  <cellStyles count="4">
+    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1473,122 +994,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E038C0-8F0B-4414-9ED9-94B0938A7294}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="111.6328125" customWidth="1"/>
-    <col min="3" max="3" width="56.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="111.6640625" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6">
+        <v>322781550</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="6">
+        <v>207758525</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6">
+        <v>203483953</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="14">
-        <v>322781550</v>
-      </c>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="14">
-        <v>207758525</v>
-      </c>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="14">
-        <v>203483953</v>
-      </c>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="C6" s="6">
+        <v>313594699</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="14">
-        <v>313594699</v>
-      </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="C7" s="6">
         <v>211584271</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1598,9 +1119,9 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -1610,9 +1131,9 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1622,9 +1143,9 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.1</v>
       </c>
@@ -1634,9 +1155,9 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1646,9 +1167,9 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.1</v>
       </c>
@@ -1658,9 +1179,9 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.2</v>
       </c>
@@ -1670,9 +1191,9 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1682,9 +1203,9 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1694,9 +1215,9 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1706,9 +1227,9 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1718,9 +1239,9 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="23"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1730,9 +1251,9 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1742,9 +1263,9 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1754,9 +1275,9 @@
       <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10.1</v>
       </c>
@@ -1766,9 +1287,9 @@
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11</v>
       </c>
@@ -1778,9 +1299,9 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11.1</v>
       </c>
@@ -1790,9 +1311,9 @@
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>12</v>
       </c>
@@ -1802,13 +1323,13 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1828,229 +1349,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A028A801-0122-4DDE-8D73-57AF100E1B01}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="C4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="169.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="169.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="169.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="20" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="169.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A8:E9"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
